--- a/mysite/dataset/의도분류질문_0901.xlsx
+++ b/mysite/dataset/의도분류질문_0901.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dosawasseungjun/HongikProjects/hongik-gpt-socket/mysite/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0461154-23A2-F948-BABA-F9A80E135A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEC56D3-58CD-3A4D-8EDD-FA62FFA70823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{78F0A5B5-BC5D-914F-BF7C-4A3608CAEC68}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17760" xr2:uid="{78F0A5B5-BC5D-914F-BF7C-4A3608CAEC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="336">
   <si>
     <t>의도</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,10 +357,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>삼일절</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2024학년도 1학기 개강</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -376,10 +373,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>22대 국회의원선거일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1학기 사이버강좌 중간고사</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -388,38 +381,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>근로자의 날</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2학기 재입학신청</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>어린이날</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체공휴일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>학사학위취득유예 신청(2024년 8월 졸업대상자)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>부처님오신날</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2024학년도 2학기 교내장학금 신청</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>현충일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2024학년도 하계 계절학기 수강신청</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -476,10 +449,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>광복절</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2024학년도 2학기 수강과목 사전선택(2차)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -508,22 +477,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>추석연휴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>추석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>개천절</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글날</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2024학년도 2학기 사이버강좌 중간고사</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -556,30 +509,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>크리스마스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2024학년도 동계 계절학기(예정)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>신정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2025학년도 1학기 복학신청(예정)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>설 연휴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>설날</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2025학년도 1학기 수강과목 사전선택(예정)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -849,19 +786,6 @@
   <si>
     <t>학교 주차창에 대해 알려줘</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2024년 7월 26일(금) 학식입니다.
-학색식당(기숙사 식당)
-아침
-점심
-저녁
-교직원식당
-아침
-점심
-저녁
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">컴퓨터공학과 과사무실 연락처입니다.
@@ -873,26 +797,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최근 게시된 학교 공지사항입니다.
-제목(링크) | 게시날짜 | 작성자
-5개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"{해당}월에 대한 학사일정 출력"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 년도 수강신청 관련 일정 다 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2024년 7월 26일 (금) 학교 주변 날씨입니다
-온도
-날씨
-최저 기온 최고 기온
-미세먼지
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -933,11 +838,6 @@
   </si>
   <si>
     <t>홍익대학교의 교색은 파란색입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20대 총장님은 양현석 총장님입니다.
-"president-box 마지막 요소 참조"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1015,12 +915,858 @@
     <t>학교 총장님이 누구야?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">$today_year$년 $today_month$월 $today_day$일 학식입니다.
+학색식당(기숙사 식당)
+아침 : $domi_breakfast$
+점심 : $domi_lunch$
+저녁 : $domi_dinner$
+교직원식당
+아침 : $staff_breakfast$
+점심 : $staff_lunch$
+저녁 : $staff_dinner$
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 게시된 학교 공지사항입니다.
+제목(링크) | 게시날짜 | 작성자
+$inform_list$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 내 편의시설 목록은 다음과 같습니다.
+&lt;학교 편의시설 목록&gt;
+카페
+편의점
+서적/문구
+기타시설
+컴퓨터매장
+여행사
+은행
+약국(그런데 원이약국 사라짐)
+외부식당
+출력센터
+사진관
+학생/교직원식당
+꽃집
+체육시설
+기숙사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 내 카페 목록은 다음과 같습니다.
+&lt;학교 카페 목록&gt;
+카페 드림
+카페 캠퍼
+북카페 카페아이엔지
+카페/빵집 파브리카
+카페 그라찌에
+과일주스 전문점 푸르타
+카페 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 카페(카페드림)
+아메리카노(HOT/ICE): 2,100원, 아이스크림: 2,000원
+외 기타음료, 핫도그 &amp; 베이커리류
+인문사회관(A동) 1층
+전화 : 02-322-0348
+[1F] 평일, 학기중 : 08:00~20:00 
+평일, 방학중 : 09:00~18:00 
+주말/공휴일, 학기중 : 09:00~18:00 
+주말/공휴일, 방학중 : 10:00~18:00 
+[2F] 평일,주말,공휴일: 09:00~23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 카페(캠퍼)
+홍익대학교 제2기숙사 지하1층에 위치한 까페 캠퍼입니다.
+제2기숙사 지하1층
+전화 : 010-2761-3141
+(평일) 08:00-21:00 (토요일) 12:00-18:00 (일요일) 휴무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 북카페(카페아이엔지)
+중앙도서관 3층에 위치한 북까페 입니다.
+중앙도서관(H동) 3층
+(평일, 학기중) 10:00 - 19:00 (평일, 방학중) 09:00 - 18:00 
+(일요일/공휴일) 휴무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 카페/빵집(파브리카)
+커피와 베이커리를 연구하고 만듭니다.
+홍문관(R동) 2층
+전화 : 0507-1336-5214
+am08:00 – pm08:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 카페(그라찌에)
+커피, 음료, 생과일주스, 버블티, 베이커리 등
+다양한 이벤트 진행, 선불카드 10% 할인판매
+홍문관(R동) 2층
+전화 : 02-320-3253
+(평일) 08:00 – 20:00 (주말) 09:00 – 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 과일주스전문점(푸르타)
+어디서도 보지못한 프리미엄 과일카페, 
+과일에 반하다 프루타
+홍문관(R동) 지하2층
+평일 : am09:00 - pm07:00 (학기중)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 카페(카페나무)
+깊은 향의 커피, 
+다양하고 신선한 디저트
+편안한 휴식공간
+홍문관(R동) 로비층
+전화 : 02-3142-1741
+평일, 학기중 : 08:00~21:00 평일, 방학중 : 08:30~19:30 
+주말/공휴일, 학기중 : 09:00~19:00 
+주말/공휴일, 방학중 : 09:00~18:00
+인문사회관(C동) 8층
+전화 : 02-332-1741
+평일, 학기중 : 08:30~19:00 평일, 방학중 : 09:00~18:00 
+주말/공휴일, 학기중 : 휴무 방학중 : 휴무
+와우관(L동) 4층
+전화 : 02-3144-1746
+평일, 학기중 : 08:30~19:00 평일, 방학중 : 09:00~18:00 
+주말/공휴일, 학기중 : 휴무 방학중 : 휴무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 내 편의점 목록은 다음과 같습니다
+&lt;학교 내 편의점 목록&gt;
+편의점 이마트24
+편의점 바이스마트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 편의점(이마트24)
+딜리셔스 아이디어, 
+홍익대학교 제2기숙사 지하1층에 위치한 이마트24입니다.
+제2기숙사 지하1층
+전화 : 1577-9621
+24시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 편의점(바이스마트)
+매일매일 제공되는 신선한 일일식품 
+다양한 과자, 라면 등으로 하루를 충전할수 있는 편리한 편의점
+홍문관(R동) 3층
+전화 : 02-332-1742
+평일, 학기중 : 유인운영08:30~18:30   무인운영05:30~23:00 
+평일, 방학중 : 유인운영09:00~16:00   무인운영05:30~23:00 
+주말/공휴일, 학기중 : 무인운영05:30~23:00 
+주말/공휴일, 방학중 : 무인운영05:30~23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 서점(대학서적)
+취급도서 : 대학교재, 일반단행본, 어학 교재, 잡지 등
+일반단행본 및 어학 10% 할인판매
+홍문관(R동) 지하2층
+전화 : 02-320-1562
+평일 : am09:00 - pm07:00 (학기중) 
+토요일 : am09:00 - pm02:00 (학기중) 일요일 및 공휴일 휴무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 문구/화방(한가람문구)
+취급품목
+화방, 사무, 지류, 모형재료, 전산용품, 생활용품, 팬시 등
+홍문관(R동) 로비층
+전화 : 02-3141-8470
+평일 : am08:30 - pm8:30 주말 및 공휴일 : am10:00 - pm08:00</t>
+  </si>
+  <si>
+    <t>편의시설: 주차장(홍문관(R동))
+주차 안내 : 홍문관(R동) 지하 2, 3, 4층
+주차 대수 : 556대
+주차 요금 : 매 10분 1,000원
+홍문관(R동) 지하 2, 3, 4층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 컴퓨터전자매장 비젼플러스
+홍문관(R동) 지하2층에 위치한 PC와 컴퓨터 판매매장 비전플러스 입니다.
+홍문관(R동) 지하2층
+전화 : 02-325-3211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 여행사(마실)
+홍문관 지하2층에 위치한 여행사입니다.
+홍문관(R동) 지하2층
+전화 : 02-322-9990
+09:00 - 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 은행(신한은행)
+홍익대학교 홍문관 1층에 위치한 신한은행입니다.
+홍문관(R동) 로비층
+전화 : 02-6023-3950
+영업점 : (평일) 09:00 - 16:00 (주말/공휴일) 휴무 
+자동화기기 : 07:00 - 23:30 
+유어스마트라운지 : (평일) 09:00 - 21:00 (주말/공휴일) 12:00 - 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 약국(원이약국)
+홍익대학교 제2기숙사 지하1층에 위치한 약국 입니다.
+제2기숙사 지하1층
+전화 : 02-333-3131
+(평일) 08:30 - 23:00 (주말) 11:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 중식당(향차이)
+홍익대학교 제2기숙사 지하1층에 위치한 중식당 향차이 입니다.
+제2기숙사 지하1층
+전화 : 02-336-0230
+11:40-21:00 15:00-16:30 브레이크타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 출력센터(에이제이네트웍스)
+후불교통카드로 각 건물에 배치된 출력기에서 출력가능 
+(T-머니, 신용카드(후불교통카드)로 사이버머니 충전)
+학생회관(G동) 1층
+전화 : 02-320-1838
+평일 : am09:00 - pm06:30 토·일요일은 휴무 
+방학기간  평일 : am09:00 - pm06:00
+홍문관(R동) 지하2층
+전화 : 02-320-1838
+평일 : am09:00 - pm06:30 토·일요일은 휴무 
+방학기간  평일 : am09:00 - pm06:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 뷔페식당(마루샤브)
+샤브샤브와 샐러드바를 즐길수 있는 패밀리레스토랑 입니다
+홍문관(R동) 16층
+11:30-21:30 (평일) 15:00-17:30 브레이크 타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 사진관(스튜디오홍대)
+작품, 증명(반명함, 여권, 비자, 외국인등록증용 사진), 학사모 촬영
+필름판매 (칼라, 흑백, 슬라이드, 일회용카메라, 흑백인화지 등)
+필름 현상 및 스캔, 인화
+홍문관(R동) 지하2층
+전화 : 02-325-1967
+(평일, 학기중) 09:30 - 20:00 (평일, 방학중) 11:00 - 18:00 
+(토요일) 11:00 - 17:00 (일요일/공휴일) 휴무, 예약촬영만 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의시설: 꽃집(세란꽃방)
+싱싱한 꽃다발과 꽃바구니, 양난,화분 등을 판매하고있습니다.
+국제언어교육원(N동) 1층
+전화 : 02-392-7494
+평일, 학기중 : 9:30~6:30 평일, 방학중 : 9:30~6:30 
+주말/공휴일, 학기중 : 휴무 방학중 : 휴무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 내 체육시설 목록은 다음과 같습니다.
+&lt;학교 내 체육시설 목록&gt;
+농구장
+배구장
+배드민턴장
+체력단련실
+검도장
+태권도실
+탁구장
+대운동장
+체육관경기장
+운동장기구실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 농구장
+농구장은 언제나 농구를 즐기는 홍익인들로 붐빈다. 농구를 좋아하는 홍익인이라면 누구나 농구장을 자유롭게 사용할 수 있다. 농구공은 운동장 기구실에서 학생증을 맡기고 빌릴 수 있다. 농구장 뒤로는 스탠드가 잘 갖추어져 있어 자유롭게 농구 경기를 관람할 수도 있다. 농구장에서는 각종 개인적 경기뿐 아니라 단대별 체육행사 및 5월 점프(농구동아리) 배 4:4 농구 대회도 열린다.
+대운동장
+이용시간 : 09:00~17:00
+이용방법 : (학기 전) 학생지원팀 일괄 추첨 진행 / (학기 중) 관재팀 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 배구장
+배구장은 체육관 경기장 내에 위치하고 있으며 
+980.2m²(37.7m x 26m) 규모의 메인코트이다.
+체육관(M동)
+이용시간 : 09:00~17:00
+이용방법 : 관재팀 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 배드민턴장
+배드민턴장은 체육관 경기장 내에 위치하고 있으며 
+980.2(37.7m x 26m) 규모의 메인코트이다. 
+현재 교직원들의 배드민턴 연습장으로 사용되고 있다.
+체육관(M동)
+이용시간 : 09:00~17:00
+이용방법 : 관재팀 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 체력단련실
+제2기숙사 지하 4층에 위치한 헬스장은 일반 헬스장 못지않은 수십 종에 달하는 프리 웨이트 위주의 운동 기구들이 설치되어 있으며 한 번에 20명 이상이 동시에 운동을 할 수 있을 만큼의 규모를 갖추고 있다. 본 헬스장은 중앙동아리 헬스부 학생만 이용이 가능하였으나, 학생들의 요청이 있어 일반 학생들과 교직원들에게도 개방하게 되었으며 헬스장은 헬스반에서 일괄적인 관리를 하고 있다. 
+이용 시간은 07:00~22:00이고 재학 중인 홍익대학(원) 생, 교수, 직원들은 일반회원으로 등록하여 이용할 수 있으며 등록은 제2기숙사 지하3층에 위치한 헬스반에서 할 수 있다. 이용료는 월 2만원이며 이용료는 헬스실 기구의 유지 및 보수, 확충을 위해 사용되고 있다. 헬스장 입실시 헬스부에서 등록할 때 나눠주는 회원증을 제시하면 자유롭게 이용할 수 있다.
+제2기숙사(지하4층)
+이용시간 : 07:00~
+이용방법 : 헬스부 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 검도장
+검도장은 제2기숙사 지하 4층에 위치하고 있다. 검도장은 동아리 검도부에서 일괄적인 관리를 담당하고 있으며, 매일 17:00~19:30에는 검도부 연습이 있다. 검도장에는 검도부원들의 호구, 호면, 갑, 죽도 등이 구비되어 있다.
+제2기숙사(지하4층)
+이용시간 : 07:00~
+이용방법 : 검도부 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 태권도실
+제2기숙사 지하 4층에 위치한 태권도실은 15명 이상의 학생이 넓게 서서 운동할 수 있을 만큼의 규모를 갖추고 있다. 태권도실은 동아리 태권도부에서 일괄적으로 관리를 하고 있으며, 태권도부 연습이 매일 17:00~19:30에 있다. 
+태권도실에는 미트(발차기용)가 6개 구비되어 있고, 태권도실 바닥에는 운동 시 안전을 위한 50장 정도의 매트가 잘 정돈되어 깔려 있다. 그 밖에도 몸통 보호대, 팔다리 보호대 등의 각종 보호 장비들을 갖추고 있다.
+제2기숙사(지하4층)
+이용시간 : 07:00~
+이용방법 : 태권도부 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 탁구장
+학생 및 교직원 대상으로 이용 가능하다.
+제2기숙사(지하4층)
+이용시간 : 07:00~
+이용방법 : 수시이용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 체육관경기장
+경기장은 1,127m²(무대 152m²포함)의 규모로써 1,592석의 스탠드를 갖추고 있다. 경기장의 980.2m²(37.7m x 26m) 의 메인코트에서는 농구, 배구, 배드민턴, 탁구, 권투, 검도, 태권도, 펜싱, 유도, 체조, 레슬링 등의 각종 실내경기를 즐길 수 있다. 
+전 종목 야간 경기도 가능하도록 조명시설이 되어 있다. 152m²(7.6m x 20m)의 무대 시설은 각종 문화 예술 공연 및 일반 행사 개최가 가능하도록 시설되어 있다. 또한 매년 입학식과 졸업식을 개최하며 부대시설로는 방송실, 임원실, 선수대기실 등이 갖추어져 있다.
+체육관(M동) 내
+이용시간 : 09:00~17:00
+이용방법 : 관재팀 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 대운동장
+학교 정문을 들어서자마자 탁 트인 하늘과 맞닿아 있는 약 6,000평의 대운동장에서는 언제나 활기찬 모습의 홍익인들을 만날 수 있다. 대운동장은 특히 수업이 끝난 이후에 축구, 농구, 발야구 등을 즐기고자 하는 학생들로 붐빈다. 야간 스탠드 장비가 설치되어 있어 늦게까지 시간에 구애받지 않고 즐거운 여가 생활을 즐길 수가 있다. 
+개강 전에 각과나 동아리들이 모여 조 추첨을 하여 1년에 한번 씩 행사에 사용할 수 있으며 상당수 토, 일요일에는 과나 동아리들의 행사 일정이 정해져 있다. 특히 총장배 와우컵 축구 대회는 운동장에서 열리는 행사 중 가장 큰 행사라 할 수 있다.
+대운동장
+이용시간 : 09:00~
+이용방법 : (학기 전) 학생지원팀 일괄 추첨 진행 / (학기 중) 관재팀 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 시설: 운동장기구실
+운동장 기구실은 대운동장 스탠드 본부 아래에 위치하고 있다. 홍익인이라면 누구나 학생증을 제시하고 축구공, 배구공, 농구공과 라이너, 점수판, 호루라기 등 각종 체육 장비들을 대여할 수 있다. 
+기구실 이용 시간은 09:00~18:00이며 대여한 체육 장비는 17:30까지 반납을 해야 한다. 토, 일요일 행사 시에는 금요일에 대여하여 월요일에 반납할 수 있도록 하고 있다.
+대운동장
+이용시간 : 09:00~
+이용방법 : 관재팀 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"홍익대학교 기숙사에 대한 설명입니다.
+본교 기숙사는 1990년 4월 첫 문을 연 후, 1993년 여학생 기숙사를 증축하였고 그 후로 남문관 4층과 합숙소 3개 층 등의 대학원생 수용 시설 확충을 거쳐 493명을 수용하는 제 1기숙사 시대로 운영되었다.
+그리고 2016년 1월, 지하 3층 지상 24층 1,102명을 수용할 수 있는 최첨단 시설을 갖춘 제 2기숙사가 완공되면서 새로운 전기를 마련하게 되었다. 2인 1실형 기숙사 공간에는 각 실 마다 샤워실과 화장실이 완비된 호텔형 기숙사로서 국내 대학 최고의 주거시설 및 편의시설, 최첨단 시스템과 학습지원 시스템을 갖추었다.
+또한 2017년 12월 준공된 제 3기숙사는 지하 3층, 지상 4층의 초 현대식 건물로 232명의 학생을 수용하게 되어 그동안 부족했던 기숙사 공간을 완전히 확보하여 보다 격이 높은 교육에 매진할 수 있는 여건이 조성되었다.
+1. 입사 대상
+신입생 및 재학생 중 성적을 고려하여 선발하며, 사회적 배려 대상자, 특별사유 대상자(외국인) 등은 우선 선발한다.
+2. 지원 및 입사
+지원 및 입사는 홈페이지(http://dormitory.hongik.ac.kr/)에 안내되고 있으며 인터넷으로 온라인 지원한다.
+3. 신청 기간(홈페이지 공지 일정 참조)
+1학기 : 매년 1월부터 신입생(수시, 특례)을 시작으로 순차적으로 재학생(대학원생 포함), 복학생, 신입생(정시)을 모집한다
+하계방학 : 5월 중
+2학기 : 7월 중
+겨울방학 : 11월 중
+홍익대학교에는 제1기숙사, 제2기숙사, 제3기숙사가 있습니다. 각각의 기숙사에 대한 정보를 알고 싶으면 다음 중에서 선택해주세요!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1기숙사(대학원생용 남문관, 합숙소 시설 포함)
+제1기숙사는 노후화된 시설이기에 2024년에 최첨단 시설로 재건축 공사 착공 예정이어서 2024년 2월까지만 운영 예정이다.
+위치 : 서울시 마포구 독막로 109 (04067) (2024년도에 재건축 예정)
+전화 : 02-320-2403～2405 (2403 ~ 2305)
+거주형태 및 수용 규모
+4인 1실(제1기숙사), 2인 1실(남문관, 합숙소)
+남학생 303명, 여학생 190명 (493명 수용)
+호실 내 시설
+책상, 침대, 옷장 등 (개인 준비물 : 이불, 베개, 세면도구, 기타 개인 물품 등)
+헤어드라이어를 제외한 전열기구, 화재위험물질 반입 금지
+부대 시설
+화장실, 샤워실, 휴게실, 세탁실, 열람실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 : 서울시 마포구 와우산로 94 (04066)
+전화 : 02-320-2402～2405 (2402 ~ 2405)
+거주형태 및 수용 규모
+2인 1실
+남학생 506명, 여학생 596명 (1,102명 수용)
+호실 내 시설
+책상, 침대, 옷장, 화장실, 샤워실, 전화기 등 
+(개인 준비물 : 이불, 베개, 세면도구, 기타 개인 물품 등)
+헤어드라이어를 제외한 전열기구, 화재위험물질 반입 금지
+부대 시설
+식당, 휴게실, 세탁실, 체력단련실, 열람실, 편의점, 택배보관실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 : 서울시 마포구 성미산로 55 (03967)
+전화 : 02-338-7440
+거주형태 및 수용 규모
+1인 1실(남), 2인 1실(남/여)
+남학생 76명, 여학생 156명 (232명 수용)
+호실 내 시설
+책상, 침대, 옷장, 화장실, 샤워실, 전화기 등 
+(개인 준비물 : 이불, 베개, 세면도구, 기타 개인 물품 등)
+헤어드라이어를 제외한 전열기구, 화재위험물질 반입 금지
+부대 시설
+공동조리실, 휴게실, 세탁실, 체력단련실, 열람실, 편의점, 택배보관실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 박물관입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 현대미술관 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월
+2024학년도 신입생 정시모집 입학전형: 12월 1일(금) ~ 2월 29일(목)
+2024학년도 편입생 입학전형: 12월 1일(금) ~ 2월 29일(목)
+2024학년도 1학기 복학신청: 24일(수) ~ 2월 1일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월
+2024학년도 신입생 정시모집 입학전형: 12월 1일(금) ~ 29일(목)
+2024학년도 편입생 입학전형: 12월 1일(금) ~ 29일(목)
+2024학년도 1학기 복학신청: 1월 24일(수) ~ 1일(목)
+2024학년도 1학기 수강과목 사전선택: 2일(금) ~ 3일(토)
+2024학년도 1학기 등록 및 휴학신청: 22일(목) ~ 28일(수)
+2023학년도 전기 학위수여식(제74회): 22일(목)
+2024학년도 신입생 입학식: 23일(금)
+2024학년도 1학기 수강신청: 23일(금) ~ 28일(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월
+삼일절: 1일(금)
+2024학년도 1학기 개강: 4일(월)
+2024학년도 1학기 수강신청 정정: 4일(월) ~ 11일(월)
+2024학년도 1학기 학기초과자(미졸자) 등록금 납부기간: 27일(수) ~ 29일(금)
+강의중간평가: 29일(금) ~ 4월 19일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월
+강의중간평가: 3월 29일(금) ~ 19일(금)
+22대 국회의원선거일: 10일(수)
+2024학년도 1학기 사이버강좌 중간고사: 20일(토) ~ 21일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월
+2024년 후기 신입생(외국인) 입학전형: 1일(수) ~ 7월 31일(월)
+근로자의 날: 1일(수)
+2024학년도 2학기 재입학신청: 2일(목) ~ 31일(금)
+어린이날: 5일(일)
+대체공휴일: 6일(월)
+학사학위취득유예 신청(2024년 8월 졸업대상자): 13일(월) ~ 7월 19일(금)
+부처님오신날: 15일(수)
+2024학년도 2학기 교내장학금 신청(~6.20(목) 18시): 21일(화) ~ 6월 20일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월
+2024년 후기 신입생(외국인) 입학전형: 5월 1일(수) ~ 7월 31일(월)
+학사학위취득유예 신청(2024년 8월 졸업대상자): 5월 13일(월) ~ 7월 19일(금)
+2024학년도 2학기 교내장학금 신청(~6.20(목) 18시): 5월 21일(화) ~ 20일(목)
+현충일: 6일(목)
+2024학년도 하계 계절학기 수강신청: 11일(화) ~ 13일(목)
+2024학년도 1학기 종강: 14일(금)
+2024학년도 1학기 성적입력 및 정정(예정): 14일(금) ~ 7월 4일(목)
+2024학년도 1학기 사이버강좌 기말고사: 15일(토) ~ 16일(일)
+2024학년도 1학기 공휴일로 인한 수업보강기간: 17일(월) ~ 21일(금)
+2024학년도 하계 계절학기 수강신청(2차): 18일(화)
+2024학년도 1학기 사이버강좌 기말고사: 22일(토)
+개교기념일: 27일(목)
+2024학년도 하계 계절학기: 28일(금) ~ 7월 18일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월
+2024년 후기 신입생(외국인) 입학전형: 5월 1일(수) ~ 31일(월)
+학사학위취득유예 신청(2024년 8월 졸업대상자): 5월 13일(월) ~ 19일(금)
+2024학년도 1학기 성적입력 및 정정(예정): 6월 14일(금) ~ 4일(목)
+2024학년도 하계 계절학기: 6월 28일(금) ~ 18일(목)
+2025학년도 신입생 재외국민 특별전형: 1일(월) ~ 10월 31일(화)
+2025년 전기 신입생(외국인) 입학전형: 1일(월) ~ 11월 30일(금)
+조기졸업 신청(2024년 8월 졸업대상자): 5일(금) ~ 12일(금)
+2024학년도 하계 계절학기 사이버강좌 기말고사: 13일(토)
+2024학년도 2학기 복학신청: 23일(화) ~ 8월 1일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월
+2025학년도 신입생 재외국민 특별전형: 7월 1일(월) ~ 10월 31일(화)
+2025년 전기 신입생(외국인) 입학전형: 7월 1일(월) ~ 11월 30일(금)
+2024학년도 2학기 복학신청: 7월 23일(화) ~ 1일(목)
+2024학년도 2학기 수강과목 사전선택(1차): 5일(월) ~ 6일(화)
+2024학년도 2학기 추가 복학신청 (최종): 9일(금) ~ 15일(목)
+광복절: 15일(목)
+2024학년도 2학기 수강과목 사전선택(2차): 16일(금) ~ 22일(목)
+2023학년도 후기 학위수여식(제74회): 22일(목)
+2024학년도 2학기 수강신청: 23일(금) ~ 28일(수)
+2024학년도 2학기 등록 및 휴학신청: 23일(금) ~ 29일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월
+2025학년도 신입생 재외국민 특별전형: 7월 1일(월) ~ 10월 31일(화)
+2025년 전기 신입생(외국인) 입학전형: 7월 1일(월) ~ 11월 30일(금)
+2025학년도 신입생 수시모집 입학전형: 1일(일) ~ 12월 31일(일)
+2024학년도 2학기 개강: 2일(월)
+2024학년도 2학기 수강신청 정정(~9.9 17시까지): 2일(월) ~ 9일(월)
+추석연휴: 16일(월)
+추석: 17일(화)
+추석연휴: 18일(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월
+2025학년도 신입생 재외국민 특별전형: 7월 1일(월) ~ 31일(화)
+2025년 전기 신입생(외국인) 입학전형: 7월 1일(월) ~ 11월 30일(금)
+2025학년도 신입생 수시모집 입학전형: 9월 1일(일) ~ 12월 31일(일)
+개천절: 3일(목)
+한글날: 9일(수)
+2024학년도 2학기 사이버강좌 중간고사: 19일(토) ~ 20일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월
+2025년 전기 신입생(외국인) 입학전형: 7월 1일(월) ~ 30일(금)
+2025학년도 신입생 수시모집 입학전형: 9월 1일(일) ~ 12월 31일(일)
+2025학년도 1학기 교내장학금 신청(기간 별도공지): 1일(금) ~ 12월 31일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월
+2025학년도 신입생 수시모집 입학전형: 9월 1일(일) ~ 31일(일)
+2025학년도 1학기 교내장학금 신청(기간 별도공지): 11월 1일(금) ~ 31일(일)
+2025학년도 신입생 정시모집 입학전형: 1일(일) ~ 2월 28일(토)
+2025학년도 편입생 입학전형: 1일(일) ~ 2월 28일(토)
+2024학년도 2학기 종강: 14일(토)
+2024학년도 2학기 사이버강좌 기말고사: 14일(토) ~ 15일(일)
+2024학년도 2학기 성적입력 및 정정(예정): 14일(토) ~ 1월 3일(금)
+2024학년도 2학기 공휴일로 인한 수업보강기간: 16일(월) ~ 20일(금)
+2024학년도 2학기 사이버강좌 기말고사: 21일(토)
+크리스마스: 25일(수)
+2024학년도 동계 계절학기(예정): 27일(금) ~ 1월 17일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$today_schedule$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 24일(수) ~ 2월 1일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 2일(금) ~ 3일(토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 22일(목) ~ 28일(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 22일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 23일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 23일(금) ~ 28일(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 4일(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 4일(월) ~ 11일(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 27일(수) ~ 29일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 29일(금) ~ 4월 19일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 20일(토) ~ 21일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 1일(수) ~ 7월 31일(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 2일(목) ~ 31일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 13일(월) ~ 7월 19일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 21일(화) ~ 6월 20일(목) 18시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월  11일(화) ~ 13일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 14일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 14일(금) ~ 7월 4일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 15일(토) ~ 16일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 17일(월) ~ 21일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 18일(화)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 22일(토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 28일(금) ~ 7월 18일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 1일(월) ~ 10월 31일(화)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 1일(월) ~ 11월 30일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 5일(금) ~ 12일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 13일(토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 23일(화) ~ 8월 1일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 5일(월) ~ 6일(화)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 9일(금) ~ 15일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 16일(금) ~ 22일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 22일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 23일(금) ~ 28일(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 23일(금) ~ 29일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 1일(일) ~ 12월 31일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 2일(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 2일(월) ~ 9일(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 19일(토) ~ 20일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 1일(금) ~ 12월 31일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 1일(일) ~ 2월 28일(토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 14일(토) ~ 3일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 14일(토) ~ 15일(일), 21(토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 14일(토) ~ 1월 3일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 16일(월) ~ 20일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12월 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27일(금) ~ 1월 17일(금)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 1월 24일(금) ~ 2월 2일(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 4일(화) ~ 5일(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 21일(금)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 21일(금) ~ 27일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 24일(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 24일(월) ~ 27일(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024학년도 2학기 추가 복학신청 (최종)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청 일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2024년 수강신청과 관련된 일정은 다음과 같습니다!
+2024학년도 1학기 수강과목 사전선택: 2월 2일(금) ~ 3일(토)
+2024학년도 1학기 등록 및 휴학신청: 2월 22일(목) ~ 28일(수)
+2024학년도 1학기 수강신청: 2월 23일(금) ~ 28일(수)
+2024학년도 1학기 수강신청 정정: 3월 4일(월) ~ 11일(월)
+2024학년도 2학기 수강과목 사전선택(1차): 5일(월) ~ 6일(화)
+2024학년도 2학기 수강과목 사전선택(2차): 16일(금) ~ 22일(목)
+2024학년도 2학기 수강신청: 8월 23일(금) ~ 28일(수)
+2024학년도 2학기 등록 및 휴학신청: 8월 23일(금) ~ 29일(목)
+2024학년도 2학기 수강신청 정정(~9.9 17시까지): 9월 2일(월) ~ 9일"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$today_year$년 $today_month$월 $today_day$일 학교 주변 날씨입니다
+온도 : $temperature$
+날씨 : $weather$
+최저 기온 : $lowest_tmp$ 최고 기온 : $highest_tmp$
+미세먼지 : $fine_dust$
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$tomarrow_year$년 $tomarrow_month$월 $tomarrow_day$일 학교 주변 날씨입니다
+온도 : $t_temperature$
+날씨 : $t_weather$
+최저 기온 : $t_lowest_tmp$ 최고 기온 : $t_highest_tmp$
+미세먼지 : $t_fine_dust$
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍익대학교의 교가는 &lt;홍익학원가&gt;입니다.
+아- 그 이름 길이 빛날
+우리 홍익 길이 길이 빛날
+그 이름 그 이름 우리 홍익 그 이름 우리 홍익 
+[링크](https://www.hongik.ac.kr/kr/introduction/song-hongik.do)에서 확인할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20대 총장님은 양현석 총장님입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1070,6 +1816,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1093,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,6 +1861,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B3380-BB96-544F-823F-1CBD44200687}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -1465,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="228">
@@ -1482,172 +2238,217 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="228">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="228">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="228">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="228">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="228">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="228">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="228">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="228">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="228">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="228">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="228">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="228">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>169</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="228">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>170</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="228">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="228">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1661,10 +2462,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1689,7 +2490,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1736,374 +2537,506 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="57">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="57">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19">
+    <row r="27" spans="1:5" ht="342">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19">
+    <row r="28" spans="1:5" ht="190">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19">
+    <row r="29" spans="1:5" ht="190">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="190">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19">
+        <v>146</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="95">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19">
+        <v>147</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="95">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19">
+        <v>148</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="95">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="19">
+        <v>149</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="114">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="19">
+        <v>150</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="95">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="19">
+        <v>151</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="380">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19">
+        <v>152</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="95">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19">
+        <v>153</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="114">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="19">
+        <v>154</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="171">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="19">
+        <v>155</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="133">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="19">
+        <v>156</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="114">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="19">
+        <v>157</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="114">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="19">
+        <v>158</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="133">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="19">
+        <v>159</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="95">
       <c r="A44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="19">
+        <v>193</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="95">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="19">
+        <v>160</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="95">
       <c r="A46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="19">
+      <c r="C46" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="152">
       <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="19">
+      <c r="C47" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="95">
       <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="19">
+      <c r="C48" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="95">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="19">
+      <c r="C49" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="247">
       <c r="A50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="19">
+      <c r="C50" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="76">
       <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="19">
+      <c r="C51" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="152">
       <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="19">
+        <v>192</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="114">
       <c r="A53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="19">
+      <c r="C53" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="247">
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="19">
+      <c r="C54" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="228">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="19">
+      <c r="C55" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="133">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="19">
+      <c r="C56" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="152">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="19">
+      <c r="C57" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="361">
       <c r="A58" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="19">
+      <c r="C58" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="171">
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="19">
+      <c r="C59" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="247">
       <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="19">
+      <c r="C60" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="114">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="19">
+      <c r="C61" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="266">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="19">
+      <c r="C62" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="285">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="19">
+      <c r="C63" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="209">
       <c r="A64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="19">
+      <c r="C64" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="409.6">
       <c r="A65" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="19">
+      <c r="C65" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="380">
       <c r="A66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="19">
+      <c r="C66" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="266">
       <c r="A67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="19">
+      <c r="C67" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="285">
       <c r="A68" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19">
@@ -2113,6 +3046,9 @@
       <c r="B69" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C69" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="19">
       <c r="A70" s="3" t="s">
@@ -2121,6 +3057,9 @@
       <c r="B70" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C70" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="19">
       <c r="A71" s="3" t="s">
@@ -2130,10 +3069,10 @@
         <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2147,7 +3086,7 @@
         <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2161,140 +3100,176 @@
         <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="19">
+    <row r="74" spans="1:5" ht="95">
       <c r="A74" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C74" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="E74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="19">
+    <row r="75" spans="1:5" ht="171">
       <c r="A75" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C75" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="19">
+    <row r="76" spans="1:5" ht="133">
       <c r="A76" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C76" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="19">
+    <row r="77" spans="1:5" ht="76">
       <c r="A77" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C77" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="E77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="19">
+    <row r="78" spans="1:5" ht="209">
       <c r="A78" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C78" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="E78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="19">
+    <row r="79" spans="1:5" ht="323">
       <c r="A79" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C79" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="E79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="19">
+    <row r="80" spans="1:5" ht="209">
       <c r="A80" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C80" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="E80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19">
+    <row r="81" spans="1:5" ht="247">
       <c r="A81" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C81" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="E81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="19">
+    <row r="82" spans="1:5" ht="228">
       <c r="A82" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C82" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="E82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19">
+    <row r="83" spans="1:5" ht="171">
       <c r="A83" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="C83" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="E83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19">
+    <row r="84" spans="1:5" ht="114">
       <c r="A84" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C84" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="E84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="19">
+    <row r="85" spans="1:5" ht="266">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="C85" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="E85">
         <v>0</v>
       </c>
@@ -2306,6 +3281,9 @@
       <c r="B86" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
       <c r="E86">
         <v>1</v>
       </c>
@@ -2317,6 +3295,9 @@
       <c r="B87" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="C87" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="E87">
         <v>0</v>
       </c>
@@ -2328,6 +3309,9 @@
       <c r="B88" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C88" t="s">
+        <v>276</v>
+      </c>
       <c r="E88">
         <v>0</v>
       </c>
@@ -2339,6 +3323,9 @@
       <c r="B89" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C89" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="E89">
         <v>0</v>
       </c>
@@ -2350,6 +3337,9 @@
       <c r="B90" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C90" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="E90">
         <v>0</v>
       </c>
@@ -2361,6 +3351,9 @@
       <c r="B91" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="C91" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="E91">
         <v>0</v>
       </c>
@@ -2372,6 +3365,9 @@
       <c r="B92" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C92" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="E92">
         <v>0</v>
       </c>
@@ -2383,6 +3379,9 @@
       <c r="B93" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="C93" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="E93">
         <v>0</v>
       </c>
@@ -2394,8 +3393,8 @@
       <c r="B94" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C94" t="s">
-        <v>215</v>
+      <c r="C94" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2408,6 +3407,9 @@
       <c r="B95" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C95" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="E95">
         <v>0</v>
       </c>
@@ -2419,6 +3421,9 @@
       <c r="B96" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C96" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E96">
         <v>0</v>
       </c>
@@ -2430,6 +3435,9 @@
       <c r="B97" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="C97" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="E97">
         <v>0</v>
       </c>
@@ -2441,6 +3449,9 @@
       <c r="B98" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C98" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="E98">
         <v>0</v>
       </c>
@@ -2452,6 +3463,9 @@
       <c r="B99" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="C99" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="E99">
         <v>0</v>
       </c>
@@ -2463,6 +3477,9 @@
       <c r="B100" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="C100" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="E100">
         <v>0</v>
       </c>
@@ -2474,6 +3491,9 @@
       <c r="B101" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C101" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="E101">
         <v>0</v>
       </c>
@@ -2485,6 +3505,9 @@
       <c r="B102" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="C102" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="E102">
         <v>0</v>
       </c>
@@ -2496,6 +3519,9 @@
       <c r="B103" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="C103" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="E103">
         <v>0</v>
       </c>
@@ -2507,6 +3533,9 @@
       <c r="B104" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C104" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="E104">
         <v>0</v>
       </c>
@@ -2518,6 +3547,9 @@
       <c r="B105" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C105" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="E105">
         <v>0</v>
       </c>
@@ -2529,6 +3561,9 @@
       <c r="B106" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="C106" t="s">
+        <v>294</v>
+      </c>
       <c r="E106">
         <v>0</v>
       </c>
@@ -2540,6 +3575,9 @@
       <c r="B107" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="C107" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="E107">
         <v>0</v>
       </c>
@@ -2551,6 +3589,9 @@
       <c r="B108" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="C108" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="E108">
         <v>0</v>
       </c>
@@ -2562,6 +3603,9 @@
       <c r="B109" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="C109" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="E109">
         <v>0</v>
       </c>
@@ -2573,6 +3617,9 @@
       <c r="B110" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="C110" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="E110">
         <v>0</v>
       </c>
@@ -2584,6 +3631,9 @@
       <c r="B111" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C111" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="E111">
         <v>0</v>
       </c>
@@ -2595,6 +3645,9 @@
       <c r="B112" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C112" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="E112">
         <v>0</v>
       </c>
@@ -2606,6 +3659,9 @@
       <c r="B113" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="C113" t="s">
+        <v>301</v>
+      </c>
       <c r="E113">
         <v>0</v>
       </c>
@@ -2617,6 +3673,9 @@
       <c r="B114" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C114" t="s">
+        <v>302</v>
+      </c>
       <c r="E114">
         <v>0</v>
       </c>
@@ -2628,6 +3687,9 @@
       <c r="B115" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C115" t="s">
+        <v>303</v>
+      </c>
       <c r="E115">
         <v>0</v>
       </c>
@@ -2639,6 +3701,9 @@
       <c r="B116" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="C116" t="s">
+        <v>304</v>
+      </c>
       <c r="E116">
         <v>0</v>
       </c>
@@ -2650,8 +3715,8 @@
       <c r="B117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E117">
-        <v>0</v>
+      <c r="C117" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="19">
@@ -2659,7 +3724,10 @@
         <v>54</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>103</v>
+        <v>328</v>
+      </c>
+      <c r="C118" t="s">
+        <v>306</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2670,7 +3738,10 @@
         <v>54</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>307</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2681,7 +3752,10 @@
         <v>54</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="C120" t="s">
+        <v>308</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2692,7 +3766,10 @@
         <v>54</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C121" t="s">
+        <v>309</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2703,7 +3780,10 @@
         <v>54</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C122" t="s">
+        <v>310</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2714,7 +3794,10 @@
         <v>54</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C123" t="s">
+        <v>311</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2725,7 +3808,10 @@
         <v>54</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C124" t="s">
+        <v>312</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2736,7 +3822,10 @@
         <v>54</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C125" t="s">
+        <v>313</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2747,7 +3836,10 @@
         <v>54</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C126" t="s">
+        <v>314</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2758,7 +3850,10 @@
         <v>54</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>315</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2769,7 +3864,10 @@
         <v>54</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C128" t="s">
+        <v>316</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2780,7 +3878,10 @@
         <v>54</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2791,7 +3892,10 @@
         <v>54</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="C130" t="s">
+        <v>317</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2802,7 +3906,10 @@
         <v>54</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="C131" t="s">
+        <v>318</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2813,7 +3920,10 @@
         <v>54</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C132" t="s">
+        <v>319</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2824,7 +3934,10 @@
         <v>54</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C133" t="s">
+        <v>320</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2835,7 +3948,10 @@
         <v>54</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C134" t="s">
+        <v>321</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -2846,7 +3962,10 @@
         <v>54</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2857,7 +3976,10 @@
         <v>54</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2868,7 +3990,10 @@
         <v>54</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -2879,7 +4004,10 @@
         <v>54</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -2890,7 +4018,10 @@
         <v>54</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -2901,241 +4032,301 @@
         <v>54</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="247">
+      <c r="A141" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="171">
+      <c r="A142" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="19">
-      <c r="A141" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="171">
+      <c r="A143" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="171">
+      <c r="A144" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="171">
+      <c r="A145" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="171">
+      <c r="A146" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="171">
+      <c r="A147" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="171">
+      <c r="A148" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="171">
+      <c r="A149" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="171">
+      <c r="A150" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="19">
-      <c r="A142" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="19">
-      <c r="A143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="19">
-      <c r="A144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C150" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="171">
+      <c r="A151" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="171">
+      <c r="A152" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="171">
+      <c r="A153" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="171">
+      <c r="A154" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="171">
+      <c r="A155" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="171">
+      <c r="A156" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="57">
+      <c r="A157" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="19">
-      <c r="A145" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="19">
-      <c r="A146" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="19">
-      <c r="A147" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="19">
-      <c r="A148" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="19">
-      <c r="A149" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="19">
-      <c r="A150" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="19">
-      <c r="A151" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="19">
-      <c r="A152" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="19">
-      <c r="A153" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="19">
-      <c r="A154" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="19">
-      <c r="A155" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="152">
-      <c r="A156" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="19">
-      <c r="A157" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>200</v>
+      <c r="B157" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="19">
+    <row r="158" spans="1:5" ht="57">
       <c r="A158" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B158" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="57">
+      <c r="A159" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="19">
-      <c r="A159" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="E159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="19">
+    <row r="160" spans="1:5" ht="133">
       <c r="A160" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>203</v>
+        <v>129</v>
+      </c>
+      <c r="B160" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="19">
+    <row r="161" spans="1:5" ht="152">
       <c r="A161" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="B161" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3143,10 +4334,13 @@
     </row>
     <row r="162" spans="1:5" ht="19">
       <c r="A162" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>187</v>
+        <v>129</v>
+      </c>
+      <c r="B162" t="s">
+        <v>219</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3154,10 +4348,13 @@
     </row>
     <row r="163" spans="1:5" ht="19">
       <c r="A163" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>188</v>
+        <v>129</v>
+      </c>
+      <c r="B163" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" t="s">
+        <v>203</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -3165,10 +4362,13 @@
     </row>
     <row r="164" spans="1:5" ht="19">
       <c r="A164" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+      <c r="B164" t="s">
+        <v>127</v>
+      </c>
+      <c r="C164" t="s">
+        <v>203</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3176,9 +4376,12 @@
     </row>
     <row r="165" spans="1:5" ht="19">
       <c r="A165" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B165" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" t="s">
         <v>204</v>
       </c>
       <c r="E165">
@@ -3187,486 +4390,305 @@
     </row>
     <row r="166" spans="1:5" ht="19">
       <c r="A166" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166" t="s">
+        <v>204</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="38">
+      <c r="A167" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" t="s">
+        <v>205</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="76">
+      <c r="A168" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="76">
+      <c r="A169" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="38">
+      <c r="A170" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="38">
+      <c r="A171" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="38">
+      <c r="A172" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" t="s">
+        <v>131</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="95">
+      <c r="A173" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B173" t="s">
+        <v>134</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="95">
+      <c r="A174" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B174" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="95">
+      <c r="A175" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B175" t="s">
+        <v>165</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="76">
+      <c r="A176" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B176" t="s">
         <v>141</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="19">
-      <c r="A167" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="19">
-      <c r="A168" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="C176" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="76">
+      <c r="A177" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="76">
+      <c r="A178" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="20" customHeight="1">
+      <c r="A179" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="114">
+      <c r="A180" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="19">
-      <c r="A169" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="19">
-      <c r="A170" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="57">
-      <c r="A171" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B171" t="s">
-        <v>190</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="57">
-      <c r="A172" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B172" t="s">
-        <v>191</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="57">
-      <c r="A173" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B173" t="s">
-        <v>192</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="133">
-      <c r="A174" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B174" t="s">
-        <v>193</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="133">
-      <c r="A175" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B175" t="s">
-        <v>194</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="38">
-      <c r="A176" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B176" t="s">
-        <v>240</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="19">
-      <c r="A177" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B177" t="s">
-        <v>195</v>
-      </c>
-      <c r="C177" t="s">
-        <v>223</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="19">
-      <c r="A178" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B178" t="s">
-        <v>143</v>
-      </c>
-      <c r="C178" t="s">
-        <v>223</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="19">
-      <c r="A179" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B179" t="s">
-        <v>144</v>
-      </c>
-      <c r="C179" t="s">
-        <v>224</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="19">
-      <c r="A180" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B180" t="s">
-        <v>196</v>
-      </c>
-      <c r="C180" t="s">
-        <v>224</v>
-      </c>
       <c r="E180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="38">
+    <row r="181" spans="1:5" ht="114">
       <c r="A181" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B181" t="s">
-        <v>226</v>
+        <v>161</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="76">
+    <row r="182" spans="1:5" ht="20" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B182" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>233</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D182" s="3"/>
       <c r="E182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="76">
+    <row r="183" spans="1:5" ht="95">
       <c r="A183" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B183" t="s">
-        <v>198</v>
+        <v>161</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>233</v>
+        <v>210</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="95">
       <c r="A184" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B184" t="s">
-        <v>199</v>
+        <v>161</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="95">
       <c r="A185" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B185" t="s">
-        <v>146</v>
+        <v>161</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="38">
-      <c r="A186" t="s">
-        <v>148</v>
-      </c>
-      <c r="B186" t="s">
-        <v>147</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="95">
-      <c r="A187" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B187" t="s">
-        <v>150</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E187">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="95">
-      <c r="A188" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B188" t="s">
-        <v>151</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="95">
-      <c r="A189" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B189" t="s">
-        <v>181</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="76">
-      <c r="A190" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B190" t="s">
-        <v>157</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="76">
-      <c r="A191" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B191" t="s">
-        <v>158</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="76">
-      <c r="A192" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B192" t="s">
-        <v>156</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="20" customHeight="1">
-      <c r="A193" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="114">
-      <c r="A194" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="114">
-      <c r="A195" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="20" customHeight="1">
-      <c r="A196" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="95">
-      <c r="A197" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="95">
-      <c r="A198" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="95">
-      <c r="A199" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="20" customHeight="1">
-      <c r="C200" s="3"/>
+    <row r="186" spans="1:5" ht="20" customHeight="1">
+      <c r="C186" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
